--- a/analyses/inputs/Medium 2020 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2020 base/Panama_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9649185E-2CEC-49D2-9061-1F7F83F6AF3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB1EE75E-CB08-44EF-A40A-E902E79BFC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6280,7 +6280,7 @@
         <v>107</v>
       </c>
       <c r="C9" s="67">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9719,19 +9719,19 @@
       </c>
       <c r="H19" s="93">
         <f>frac_malaria_risk</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I19" s="93">
         <f>frac_malaria_risk</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J19" s="93">
         <f>frac_malaria_risk</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K19" s="93">
         <f>frac_malaria_risk</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L19" s="94">
         <v>0</v>
@@ -10353,55 +10353,55 @@
       </c>
       <c r="C34" s="93">
         <f t="shared" ref="C34:O34" si="3">frac_malaria_risk</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/analyses/inputs/Medium 2020 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2020 base/Panama_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB1EE75E-CB08-44EF-A40A-E902E79BFC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B78372-1C8B-4638-8761-01983AE629FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6206,14 +6206,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,17 +6249,17 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>386567</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.60894341367279414</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0.68520930232558175</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0.62962790697674409</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -6315,17 +6315,17 @@
         <v>0.42417054263565923</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6366,15 +6366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>0.16450000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0.53220000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.27499999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -6406,18 +6406,18 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>35.68</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>48.47</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6458,20 +6458,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -6523,16 +6523,16 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6571,16 +6571,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -6621,12 +6621,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1.9375E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0.58259259259259266</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6682,7 +6682,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6690,7 +6690,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6737,104 +6737,104 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="89"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6857,85 +6857,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6955,9 +6955,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>3.406E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -7069,7 +7069,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7082,7 +7082,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7808,7 +7808,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8180,7 +8180,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8421,7 +8421,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8882,7 +8882,7 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8894,7 +8894,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9501,10 +9501,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9882,10 +9882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>0.42417054263565923</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>0.49462</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0.21197999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>0.29339999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10135,7 +10135,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10649,7 +10649,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10664,7 +10664,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10716,7 +10716,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10750,7 +10750,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10824,7 +10824,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10843,7 +10843,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10911,7 +10911,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10930,7 +10930,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10949,7 +10949,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10987,7 +10987,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -11006,7 +11006,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11137,7 +11137,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11154,7 +11154,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11190,7 +11190,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11281,7 +11281,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11338,7 +11338,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11412,7 +11412,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11427,7 +11427,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11491,7 +11491,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11578,7 +11578,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11607,7 +11607,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11649,7 +11649,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11670,7 +11670,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11691,7 +11691,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11786,7 +11786,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11794,7 +11794,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -12000,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -12021,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12151,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12174,14 +12174,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12488,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12509,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12532,14 +12532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12586,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12607,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12651,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12672,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12737,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12802,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12925,7 +12925,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12935,12 +12935,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12955,7 +12955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -13033,13 +13033,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -13057,14 +13057,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13084,7 +13084,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13147,7 +13147,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13158,7 +13158,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13298,10 +13298,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13322,7 +13322,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13333,12 +13333,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="112" customFormat="1">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13372,7 +13372,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13404,7 +13404,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13519,7 +13519,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13718,7 +13718,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13892,7 +13892,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -14007,7 +14007,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -14063,12 +14063,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="112" customFormat="1">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14102,7 +14102,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14134,7 +14134,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14218,7 +14218,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14277,7 +14277,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14448,7 +14448,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14594,7 +14594,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14622,7 +14622,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14678,7 +14678,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14709,7 +14709,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14765,7 +14765,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14793,16 +14793,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="112" customFormat="1">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14856,7 +14856,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14878,7 +14878,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14903,7 +14903,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14925,7 +14925,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14972,16 +14972,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="112" customFormat="1">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15047,7 +15047,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15162,7 +15162,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15246,7 +15246,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15333,7 +15333,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15361,7 +15361,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15591,7 +15591,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15793,7 +15793,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15821,7 +15821,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15852,7 +15852,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15880,7 +15880,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15908,7 +15908,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15936,7 +15936,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15967,7 +15967,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15995,7 +15995,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -16023,7 +16023,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -16051,12 +16051,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="112" customFormat="1">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16090,7 +16090,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16120,7 +16120,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16148,7 +16148,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16176,7 +16176,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16225,14 +16225,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2020</v>
@@ -16294,7 +16294,7 @@
         <v>1005173.110225983</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2021</v>
@@ -16327,7 +16327,7 @@
         <v>1018023.527275402</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16360,7 +16360,7 @@
         <v>1030033.4315908876</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16391,7 +16391,7 @@
         <v>1133634</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16422,7 +16422,7 @@
         <v>1144758</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16453,7 +16453,7 @@
         <v>1155803</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16484,7 +16484,7 @@
         <v>1166121</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16515,7 +16515,7 @@
         <v>1176483</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16546,7 +16546,7 @@
         <v>1186730</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16577,7 +16577,7 @@
         <v>1196586</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16608,7 +16608,7 @@
         <v>1205891</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16641,7 +16641,7 @@
         <v>707491.39474927774</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16664,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16687,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16710,7 +16710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16733,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16756,7 +16756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16779,7 +16779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16825,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16848,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16871,7 +16871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16894,7 +16894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16917,7 +16917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16940,7 +16940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16986,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17009,7 +17009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17055,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17078,7 +17078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17101,7 +17101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17147,7 +17147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17216,7 +17216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17239,7 +17239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17285,7 +17285,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17297,12 +17297,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17364,12 +17364,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17437,12 +17437,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17463,16 +17463,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17516,7 +17516,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17539,13 +17539,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17595,7 +17595,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17604,7 +17604,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17622,7 +17622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17642,7 +17642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17660,7 +17660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17698,7 +17698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17736,7 +17736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17774,7 +17774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17812,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17850,10 +17850,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17874,7 +17874,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17882,7 +17882,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17925,12 +17925,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18458,13 +18458,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18552,7 +18552,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18640,16 +18640,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18670,7 +18670,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18678,7 +18678,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18697,12 +18697,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18733,7 +18733,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18771,7 +18771,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18784,7 +18784,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -18991,7 +18991,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -19011,7 +19011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -19054,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -19080,7 +19080,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -19101,7 +19101,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -19125,7 +19125,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -19146,7 +19146,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -19173,7 +19173,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19194,7 +19194,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19218,7 +19218,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19239,7 +19239,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19266,7 +19266,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19287,7 +19287,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19359,7 +19359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19511,7 +19511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19537,7 +19537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19557,7 +19557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19623,7 +19623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19709,7 +19709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19798,7 +19798,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19838,7 +19838,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19864,7 +19864,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19884,7 +19884,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -19994,7 +19994,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -20003,7 +20003,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -20025,7 +20025,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -20049,7 +20049,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -20067,7 +20067,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -20091,7 +20091,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -20110,7 +20110,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -20134,7 +20134,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -20168,24 +20168,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20206,7 +20206,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20215,7 +20215,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20250,7 +20250,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20268,7 +20268,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20358,7 +20358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20394,7 +20394,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20415,14 +20415,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2020) attributable to cause</v>
@@ -20433,7 +20433,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20448,7 +20448,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -20464,7 +20464,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>6.4500000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>0.1326</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>0.25929999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>7.4700000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20523,7 +20523,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20532,7 +20532,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20553,7 +20553,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20570,7 +20570,7 @@
         <v>0.1153</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>0.2155</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20638,7 +20638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>0.57640000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20729,7 +20729,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20738,7 +20738,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20754,7 +20754,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -20770,7 +20770,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>8.9800000000000005E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>0.21790000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>6.2600000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>0.1535</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20854,13 +20854,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2020)</v>
@@ -20884,7 +20884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20907,7 +20907,7 @@
         <v>0.46479999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20928,7 +20928,7 @@
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20949,7 +20949,7 @@
         <v>0.16589999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20970,7 +20970,7 @@
         <v>7.6299999999999993E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20978,7 +20978,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -20986,7 +20986,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>0.90659999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>7.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>4.7631000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -21083,7 +21083,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -21127,7 +21127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>0.23568</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -21228,14 +21228,14 @@
         <v>0.13730542222222225</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -21261,13 +21261,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2020)</v>
@@ -21291,7 +21291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -21314,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -21334,7 +21334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21396,13 +21396,13 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21442,10 +21442,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21468,10 +21468,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21491,7 +21491,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21508,7 +21508,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21525,7 +21525,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21545,7 +21545,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21562,7 +21562,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21581,7 +21581,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21615,7 +21615,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21623,7 +21623,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21654,7 +21654,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21668,7 +21668,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21682,7 +21682,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21694,7 +21694,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21706,7 +21706,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21715,7 +21715,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21726,7 +21726,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21735,7 +21735,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21744,7 +21744,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21755,7 +21755,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21766,7 +21766,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21775,7 +21775,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21789,7 +21789,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21801,7 +21801,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21813,7 +21813,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21825,7 +21825,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21837,7 +21837,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21866,7 +21866,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21874,7 +21874,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21888,7 +21888,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21933,7 +21933,7 @@
       <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21943,7 +21943,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21961,7 +21961,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -21989,13 +21989,13 @@
         <v>0.95</v>
       </c>
       <c r="D3" s="86">
-        <v>60.01</v>
+        <v>43.82</v>
       </c>
       <c r="E3" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -22012,7 +22012,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -22029,7 +22029,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -22063,7 +22063,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -22080,7 +22080,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -22108,13 +22108,13 @@
         <v>0.95</v>
       </c>
       <c r="D10" s="86">
-        <v>3.48</v>
+        <v>3.11</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -22125,13 +22125,13 @@
         <v>0.95</v>
       </c>
       <c r="D11" s="86">
-        <v>3.69</v>
+        <v>3.11</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -22142,13 +22142,13 @@
         <v>0.95</v>
       </c>
       <c r="D12" s="86">
-        <v>3.69</v>
+        <v>3.11</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -22159,13 +22159,13 @@
         <v>0.95</v>
       </c>
       <c r="D13" s="86">
-        <v>3.69</v>
+        <v>3.11</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -22176,13 +22176,13 @@
         <v>0.95</v>
       </c>
       <c r="D14" s="86">
-        <v>20.46</v>
+        <v>15.34</v>
       </c>
       <c r="E14" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -22193,13 +22193,13 @@
         <v>0.95</v>
       </c>
       <c r="D15" s="86">
-        <v>21.69</v>
+        <v>15.34</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -22210,13 +22210,13 @@
         <v>0.95</v>
       </c>
       <c r="D16" s="86">
-        <v>3.15</v>
+        <v>2.31</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -22227,13 +22227,13 @@
         <v>0.95</v>
       </c>
       <c r="D17" s="86">
-        <v>2.36</v>
+        <v>0.15</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -22250,7 +22250,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -22261,13 +22261,13 @@
         <v>0.95</v>
       </c>
       <c r="D19" s="86">
-        <v>36.81</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -22301,7 +22301,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -22312,13 +22312,13 @@
         <v>0.95</v>
       </c>
       <c r="D22" s="86">
-        <v>35.99</v>
+        <v>27.28</v>
       </c>
       <c r="E22" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -22346,13 +22346,13 @@
         <v>0.95</v>
       </c>
       <c r="D24" s="86">
-        <v>28.64</v>
+        <v>21.23</v>
       </c>
       <c r="E24" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22363,13 +22363,13 @@
         <v>0.95</v>
       </c>
       <c r="D25" s="86">
-        <v>28.63</v>
+        <v>21.22</v>
       </c>
       <c r="E25" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22380,13 +22380,13 @@
         <v>0.95</v>
       </c>
       <c r="D26" s="86">
-        <v>10.61</v>
+        <v>9.01</v>
       </c>
       <c r="E26" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22397,13 +22397,13 @@
         <v>0.95</v>
       </c>
       <c r="D27" s="86">
-        <v>18.239999999999998</v>
+        <v>21.23</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22414,13 +22414,13 @@
         <v>0.95</v>
       </c>
       <c r="D28" s="86">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="E28" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22437,7 +22437,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22471,7 +22471,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22482,13 +22482,13 @@
         <v>0.95</v>
       </c>
       <c r="D32" s="86">
-        <v>5.2</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E32" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22522,7 +22522,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22556,7 +22556,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22574,7 +22574,7 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22585,13 +22585,13 @@
         <v>0.95</v>
       </c>
       <c r="D38" s="86">
-        <v>3.76</v>
+        <v>3.09</v>
       </c>
       <c r="E38" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22602,13 +22602,13 @@
         <v>0.95</v>
       </c>
       <c r="D39" s="86">
-        <v>5.23</v>
+        <v>5.14</v>
       </c>
       <c r="E39" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/Medium 2020 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2020 base/Panama_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B78372-1C8B-4638-8761-01983AE629FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{502307CD-6852-46A3-83D8-58898C23CB2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6202,18 +6202,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,17 +6249,17 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>386567</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.60894341367279414</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0.68520930232558175</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0.62962790697674409</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -6315,17 +6315,17 @@
         <v>0.42417054263565923</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6366,15 +6366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>0.16450000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0.53220000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.27499999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -6406,18 +6406,18 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>35.68</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>48.47</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6458,20 +6458,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -6523,16 +6523,16 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6571,16 +6571,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -6621,12 +6621,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1.9375E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0.58259259259259266</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6679,10 +6679,10 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6690,7 +6690,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6737,104 +6737,110 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-    </row>
-    <row r="7" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6857,85 +6863,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6955,9 +6961,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6977,7 +6983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -7027,7 +7033,7 @@
         <v>3.406E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -7069,7 +7075,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7082,7 +7088,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7129,7 +7135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7220,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7264,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7308,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7352,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7396,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7440,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7484,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7528,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7572,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7616,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7660,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7704,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7748,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7792,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7808,7 +7814,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7900,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7944,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7988,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -8032,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8076,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8120,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8164,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8180,7 +8186,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8228,7 +8234,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8317,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8361,7 +8367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8405,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8421,7 +8427,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8512,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8556,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8600,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8644,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8689,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8733,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8777,7 +8783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8821,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8878,11 +8884,11 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8894,7 +8900,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8941,7 +8947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8992,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -9036,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9080,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9126,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9173,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9268,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9316,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9364,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9408,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9457,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9501,10 +9507,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9555,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9600,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9649,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9698,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9746,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9790,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9834,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9882,10 +9888,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9936,7 +9942,7 @@
         <v>0.42417054263565923</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9984,7 +9990,7 @@
         <v>0.49462</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -10032,7 +10038,7 @@
         <v>0.21197999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10080,7 +10086,7 @@
         <v>0.29339999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10125,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10135,7 +10141,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10193,7 +10199,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10248,7 +10254,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10303,7 +10309,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10347,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10404,7 +10410,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10448,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10493,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10537,7 +10543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10581,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10625,7 +10631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10649,7 +10655,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10664,7 +10670,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10699,7 +10705,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10716,7 +10722,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10733,7 +10739,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10750,7 +10756,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10767,7 +10773,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10786,7 +10792,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10805,7 +10811,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10824,7 +10830,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10843,7 +10849,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10860,7 +10866,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10877,7 +10883,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10894,7 +10900,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10911,7 +10917,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10930,7 +10936,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10949,7 +10955,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10970,7 +10976,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10987,7 +10993,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -11006,7 +11012,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -11025,7 +11031,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -11044,7 +11050,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -11063,7 +11069,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11084,7 +11090,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11103,7 +11109,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11120,7 +11126,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11137,7 +11143,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11154,7 +11160,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11173,7 +11179,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11190,7 +11196,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11209,7 +11215,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11226,7 +11232,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11243,7 +11249,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11262,7 +11268,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11281,7 +11287,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11300,7 +11306,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11319,7 +11325,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11338,7 +11344,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11357,7 +11363,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11374,7 +11380,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11412,7 +11418,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11427,7 +11433,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11462,7 +11468,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11491,7 +11497,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11520,7 +11526,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11549,7 +11555,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11578,7 +11584,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11607,7 +11613,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11628,7 +11634,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11649,7 +11655,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11670,7 +11676,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11691,7 +11697,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11712,7 +11718,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11731,7 +11737,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11750,7 +11756,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11782,11 +11788,11 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11794,7 +11800,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11820,7 +11826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11868,7 +11874,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11890,7 +11896,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11914,7 +11920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11935,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11956,7 +11962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11979,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -12000,7 +12006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -12021,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -12044,7 +12050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -12065,7 +12071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12086,7 +12092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12109,7 +12115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12130,7 +12136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12151,7 +12157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12174,14 +12180,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12207,7 +12213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12228,7 +12234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12249,7 +12255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12272,7 +12278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12293,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12314,7 +12320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12337,7 +12343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12358,7 +12364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12379,7 +12385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12402,7 +12408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12423,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12444,7 +12450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12461,13 +12467,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="105">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="H31" s="105">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12482,13 +12488,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="105">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="H32" s="105">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12509,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12532,14 +12538,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12565,7 +12571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12586,7 +12592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12607,7 +12613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12630,7 +12636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12651,7 +12657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12672,7 +12678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12695,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12716,7 +12722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12737,7 +12743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12760,7 +12766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12781,7 +12787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12802,7 +12808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12825,7 +12831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12846,7 +12852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12867,7 +12873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12893,6 +12899,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12902,12 +12914,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12925,7 +12931,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12935,12 +12941,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12955,7 +12961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12965,7 +12971,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12982,7 +12988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12999,7 +13005,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -13016,7 +13022,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -13033,13 +13039,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -13057,14 +13063,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13074,7 +13080,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13084,7 +13090,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13102,7 +13108,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13120,7 +13126,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13138,7 +13144,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13147,7 +13153,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13158,7 +13164,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13176,7 +13182,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13194,7 +13200,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13212,7 +13218,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13230,7 +13236,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13247,7 +13253,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13264,7 +13270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13281,7 +13287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13298,10 +13304,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13318,11 +13324,11 @@
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13333,12 +13339,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1">
+    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13372,7 +13378,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13404,7 +13410,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13432,7 +13438,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13460,7 +13466,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13488,7 +13494,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13519,7 +13525,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13547,7 +13553,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13575,7 +13581,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13603,7 +13609,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13634,7 +13640,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13662,7 +13668,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13690,7 +13696,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13718,7 +13724,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13749,7 +13755,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13777,7 +13783,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13805,7 +13811,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13833,7 +13839,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13864,7 +13870,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13892,7 +13898,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13920,7 +13926,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13948,7 +13954,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13979,7 +13985,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -14007,7 +14013,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -14035,7 +14041,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -14063,12 +14069,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1">
+    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14102,7 +14108,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14134,7 +14140,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14162,7 +14168,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14190,7 +14196,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14218,7 +14224,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14249,7 +14255,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14277,7 +14283,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14305,7 +14311,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14333,7 +14339,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14364,7 +14370,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14392,7 +14398,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14420,7 +14426,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14448,7 +14454,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14479,7 +14485,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14507,7 +14513,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14535,7 +14541,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14563,7 +14569,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14594,7 +14600,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14622,7 +14628,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14650,7 +14656,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14678,7 +14684,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14709,7 +14715,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14737,7 +14743,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14765,7 +14771,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14793,16 +14799,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1">
+    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14830,7 +14836,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14856,7 +14862,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14878,7 +14884,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14903,7 +14909,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14925,7 +14931,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14950,7 +14956,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14972,16 +14978,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1">
+    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -15015,7 +15021,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15047,7 +15053,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15075,7 +15081,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15103,7 +15109,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15131,7 +15137,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15162,7 +15168,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15190,7 +15196,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15218,7 +15224,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15246,7 +15252,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15277,7 +15283,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15305,7 +15311,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15333,7 +15339,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15361,7 +15367,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15392,7 +15398,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15420,7 +15426,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15448,7 +15454,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15476,7 +15482,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15507,7 +15513,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15535,7 +15541,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15563,7 +15569,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15591,7 +15597,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15622,7 +15628,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15650,7 +15656,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15678,7 +15684,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15706,7 +15712,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15737,7 +15743,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15765,7 +15771,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15793,7 +15799,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15821,7 +15827,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15852,7 +15858,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15880,7 +15886,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15908,7 +15914,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15936,7 +15942,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15967,7 +15973,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15995,7 +16001,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -16023,7 +16029,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -16051,12 +16057,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1">
+    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16090,7 +16096,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16120,7 +16126,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16148,7 +16154,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16176,7 +16182,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16204,7 +16210,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16225,14 +16231,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16261,7 +16267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2020</v>
@@ -16294,7 +16300,7 @@
         <v>1005173.110225983</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2021</v>
@@ -16327,7 +16333,7 @@
         <v>1018023.527275402</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16360,7 +16366,7 @@
         <v>1030033.4315908876</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16391,7 +16397,7 @@
         <v>1133634</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16422,7 +16428,7 @@
         <v>1144758</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16453,7 +16459,7 @@
         <v>1155803</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16484,7 +16490,7 @@
         <v>1166121</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16515,7 +16521,7 @@
         <v>1176483</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16546,7 +16552,7 @@
         <v>1186730</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16577,7 +16583,7 @@
         <v>1196586</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16608,7 +16614,7 @@
         <v>1205891</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16641,7 +16647,7 @@
         <v>707491.39474927774</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16664,7 +16670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16687,7 +16693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16710,7 +16716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16733,7 +16739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16756,7 +16762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16779,7 +16785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16802,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16825,7 +16831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16848,7 +16854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16871,7 +16877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16894,7 +16900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16917,7 +16923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16940,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16963,7 +16969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16986,7 +16992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17009,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17032,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17055,7 +17061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17078,7 +17084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17101,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17124,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17147,7 +17153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17170,7 +17176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17193,7 +17199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17216,7 +17222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17239,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17285,7 +17291,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17297,12 +17303,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17323,7 +17329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17343,7 +17349,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17364,12 +17370,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17389,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17409,7 +17415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17429,7 +17435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17437,12 +17443,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17463,16 +17469,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17495,7 +17501,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17516,7 +17522,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17539,13 +17545,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17559,7 +17565,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17595,7 +17601,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17604,7 +17610,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17622,7 +17628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17642,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17660,7 +17666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17680,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17698,7 +17704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17718,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17736,7 +17742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17756,7 +17762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17774,7 +17780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17794,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17812,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17832,7 +17838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17850,10 +17856,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17874,7 +17880,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17882,7 +17888,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17925,12 +17931,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17974,7 +17980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -18018,7 +18024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -18062,7 +18068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -18106,7 +18112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -18150,7 +18156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18194,7 +18200,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18238,7 +18244,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18282,7 +18288,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18326,7 +18332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18370,7 +18376,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18414,7 +18420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18458,13 +18464,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18508,7 +18514,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18552,7 +18558,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18596,7 +18602,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18640,16 +18646,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18670,7 +18676,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18678,7 +18684,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18697,12 +18703,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18722,7 +18728,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18733,7 +18739,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18771,7 +18777,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18784,7 +18790,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18810,7 +18816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18836,7 +18842,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18856,7 +18862,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18876,7 +18882,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18902,7 +18908,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18922,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18945,7 +18951,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18965,7 +18971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -18991,7 +18997,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -19011,7 +19017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -19034,7 +19040,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -19054,7 +19060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -19080,7 +19086,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -19101,7 +19107,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -19125,7 +19131,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -19146,7 +19152,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -19173,7 +19179,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19194,7 +19200,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19218,7 +19224,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19239,7 +19245,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19266,7 +19272,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19287,7 +19293,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19313,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19333,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19359,7 +19365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19379,7 +19385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19405,7 +19411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19425,7 +19431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19445,7 +19451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19471,7 +19477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19491,7 +19497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19511,7 +19517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19537,7 +19543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19557,7 +19563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19577,7 +19583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19603,7 +19609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19623,7 +19629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19643,7 +19649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19669,7 +19675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19689,7 +19695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19709,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19735,7 +19741,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19755,7 +19761,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19775,7 +19781,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19798,7 +19804,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19818,7 +19824,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19838,7 +19844,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19864,7 +19870,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19884,7 +19890,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19910,7 +19916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19930,7 +19936,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19956,7 +19962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -19994,7 +20000,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -20003,7 +20009,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -20025,7 +20031,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -20049,7 +20055,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -20067,7 +20073,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -20091,7 +20097,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -20110,7 +20116,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -20134,7 +20140,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -20168,24 +20174,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20206,7 +20212,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20215,7 +20221,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20232,7 +20238,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20250,7 +20256,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20268,7 +20274,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20286,7 +20292,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20304,7 +20310,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20322,7 +20328,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20340,7 +20346,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20358,7 +20364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20376,7 +20382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20394,7 +20400,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20415,14 +20421,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2020) attributable to cause</v>
@@ -20433,7 +20439,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20448,7 +20454,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -20456,7 +20462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -20464,7 +20470,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -20472,7 +20478,7 @@
         <v>6.4500000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -20480,7 +20486,7 @@
         <v>0.1326</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -20488,7 +20494,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -20496,7 +20502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -20504,7 +20510,7 @@
         <v>0.25929999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -20512,7 +20518,7 @@
         <v>7.4700000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20523,7 +20529,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20532,7 +20538,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20553,7 +20559,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20570,7 +20576,7 @@
         <v>0.1153</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20587,7 +20593,7 @@
         <v>0.2155</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20604,7 +20610,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20621,7 +20627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20638,7 +20644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20655,7 +20661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20672,7 +20678,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20689,7 +20695,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20706,7 +20712,7 @@
         <v>0.57640000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20729,7 +20735,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20738,7 +20744,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20754,7 +20760,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -20762,7 +20768,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -20770,7 +20776,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -20778,7 +20784,7 @@
         <v>8.9800000000000005E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -20786,7 +20792,7 @@
         <v>0.21790000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -20794,7 +20800,7 @@
         <v>6.2600000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -20802,7 +20808,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -20810,7 +20816,7 @@
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -20818,7 +20824,7 @@
         <v>0.1535</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -20826,7 +20832,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20854,13 +20860,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2020)</v>
@@ -20884,7 +20890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20907,7 +20913,7 @@
         <v>0.46479999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20928,7 +20934,7 @@
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20949,7 +20955,7 @@
         <v>0.16589999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20970,7 +20976,7 @@
         <v>7.6299999999999993E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20978,7 +20984,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -20986,7 +20992,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -21009,7 +21015,7 @@
         <v>0.90659999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -21029,7 +21035,7 @@
         <v>7.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -21049,7 +21055,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -21069,7 +21075,7 @@
         <v>4.7631000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -21083,7 +21089,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -21127,7 +21133,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -21171,7 +21177,7 @@
         <v>0.23568</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -21228,14 +21234,14 @@
         <v>0.13730542222222225</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -21261,13 +21267,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2020)</v>
@@ -21291,7 +21297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -21314,7 +21320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -21334,7 +21340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -21354,7 +21360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21396,13 +21402,13 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21419,7 +21425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21442,10 +21448,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21468,10 +21474,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21491,7 +21497,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21508,7 +21514,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21525,7 +21531,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21545,7 +21551,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21562,7 +21568,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21581,7 +21587,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21611,11 +21617,11 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21623,7 +21629,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21640,7 +21646,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21654,7 +21660,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21668,7 +21674,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21682,7 +21688,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21694,7 +21700,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21706,7 +21712,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21715,7 +21721,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21726,7 +21732,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21735,7 +21741,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21744,7 +21750,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21755,7 +21761,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21766,7 +21772,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21775,7 +21781,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21789,7 +21795,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21801,7 +21807,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21813,31 +21819,35 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="82"/>
-      <c r="D19" s="81"/>
+      <c r="D19" s="81" t="s">
+        <v>216</v>
+      </c>
       <c r="E19" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="82"/>
-      <c r="D20" s="84"/>
+      <c r="D20" s="84" t="s">
+        <v>216</v>
+      </c>
       <c r="E20" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21866,7 +21876,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21874,7 +21884,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21888,7 +21898,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21902,7 +21912,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21929,11 +21939,11 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="D39" sqref="D2:D39"/>
+    <sheetView topLeftCell="A7" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21943,7 +21953,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21961,7 +21971,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -21978,7 +21988,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -21995,7 +22005,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -22012,7 +22022,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -22029,7 +22039,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -22046,7 +22056,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -22063,7 +22073,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -22080,7 +22090,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -22097,7 +22107,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -22114,7 +22124,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -22131,7 +22141,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -22148,7 +22158,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -22165,7 +22175,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -22182,7 +22192,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -22199,7 +22209,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -22216,7 +22226,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -22233,7 +22243,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -22250,7 +22260,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -22258,7 +22268,8 @@
         <v>0</v>
       </c>
       <c r="C19" s="85">
-        <v>0.95</v>
+        <f>(1-food_insecure)*0.95</f>
+        <v>0.92909999999999993</v>
       </c>
       <c r="D19" s="86">
         <v>34.729999999999997</v>
@@ -22267,7 +22278,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -22284,7 +22295,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -22301,7 +22312,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -22318,7 +22329,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -22335,7 +22346,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -22352,7 +22363,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22369,7 +22380,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22386,7 +22397,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22403,7 +22414,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22420,7 +22431,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22437,7 +22448,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22454,7 +22465,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22471,7 +22482,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22488,7 +22499,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22505,7 +22516,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22522,7 +22533,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22539,7 +22550,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22556,7 +22567,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22574,7 +22585,7 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22591,7 +22602,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22608,7 +22619,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/Medium 2020 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2020 base/Panama_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{502307CD-6852-46A3-83D8-58898C23CB2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31E5100E-401F-494A-B4D1-F134C04312A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12465" yWindow="-13875" windowWidth="23250" windowHeight="12570" tabRatio="961" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6859,8 +6859,8 @@
   </sheetPr>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6915,7 +6915,9 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
@@ -8884,7 +8886,7 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -12899,12 +12901,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12914,6 +12910,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/analyses/inputs/Medium 2020 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2020 base/Panama_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31E5100E-401F-494A-B4D1-F134C04312A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECABCB2D-228A-44C8-9793-72F019338249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12465" yWindow="-13875" windowWidth="23250" windowHeight="12570" tabRatio="961" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -6537,7 +6537,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="67">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6990000000000002E-2</v>
       </c>
       <c r="D45" s="17"/>
     </row>
@@ -6546,7 +6546,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="67">
-        <v>6.4399999999999999E-2</v>
+        <v>6.4409999999999995E-2</v>
       </c>
       <c r="D46" s="17"/>
     </row>
@@ -6555,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="67">
-        <v>0.1145</v>
+        <v>0.11451</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="C48" s="70">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
-        <v>0.80409999999999993</v>
+        <v>0.80409000000000008</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>

--- a/analyses/inputs/Medium 2020 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2020 base/Panama_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECABCB2D-228A-44C8-9793-72F019338249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B01217-DC1A-4965-BA4E-4F8C12703C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
     <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
-    <sheet name="Reference programs" sheetId="59" r:id="rId11"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="Programs impacted population" sheetId="62" r:id="rId13"/>
+    <sheet name="Programs impacted population" sheetId="62" r:id="rId11"/>
+    <sheet name="Reference programs" sheetId="59" r:id="rId12"/>
+    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId13"/>
     <sheet name="Programs target population" sheetId="21" r:id="rId14"/>
     <sheet name="Program risk areas" sheetId="63" r:id="rId15"/>
     <sheet name="Population risk areas" sheetId="64" r:id="rId16"/>
@@ -6853,220 +6853,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr codeName="Sheet11">
-    <tabColor theme="0" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:A19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr codeName="Sheet12">
-    <tabColor theme="0" tint="-0.34998626667073579"/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="26">
-        <f>'Baseline year population inputs'!C51</f>
-        <v>3.2</v>
-      </c>
-      <c r="C2" s="26">
-        <f>'Baseline year population inputs'!C52</f>
-        <v>3.2</v>
-      </c>
-      <c r="D2" s="26">
-        <f>'Baseline year population inputs'!C53</f>
-        <v>3.2</v>
-      </c>
-      <c r="E2" s="26">
-        <f>'Baseline year population inputs'!C54</f>
-        <v>3.2</v>
-      </c>
-      <c r="F2" s="26">
-        <f>'Baseline year population inputs'!C55</f>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="26">
-        <f>frac_mam_1month * 2.6</f>
-        <v>7.7740000000000004E-2</v>
-      </c>
-      <c r="C3" s="26">
-        <f>frac_mam_1_5months * 2.6</f>
-        <v>7.7740000000000004E-2</v>
-      </c>
-      <c r="D3" s="26">
-        <f>frac_mam_6_11months * 2.6</f>
-        <v>7.2279999999999997E-2</v>
-      </c>
-      <c r="E3" s="26">
-        <f>frac_mam_12_23months * 2.6</f>
-        <v>4.5239999999999995E-2</v>
-      </c>
-      <c r="F3" s="26">
-        <f>frac_mam_24_59months * 2.6</f>
-        <v>3.406E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="26">
-        <f>frac_sam_1month * 2.6</f>
-        <v>4.4979999999999999E-2</v>
-      </c>
-      <c r="C4" s="26">
-        <f>frac_sam_1_5months * 2.6</f>
-        <v>4.4979999999999999E-2</v>
-      </c>
-      <c r="D4" s="26">
-        <f>frac_sam_6_11months * 2.6</f>
-        <v>2.8080000000000001E-2</v>
-      </c>
-      <c r="E4" s="26">
-        <f>frac_sam_12_23months * 2.6</f>
-        <v>1.886326E-2</v>
-      </c>
-      <c r="F4" s="26">
-        <f>frac_sam_24_59months * 2.6</f>
-        <v>1.2384060000000001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -8876,6 +8662,220 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="R6E4Z1eMEwhWY9x8ah7fn60K/FUhiD3bjZsN+d0aneOUBQjx+MSzEQ3f4xgLromXQacg2RuQX2zps17p5X6/Gg==" saltValue="2H1gYE0Uxd3bfzXEuxrcUQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet11">
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12">
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="26">
+        <f>'Baseline year population inputs'!C51</f>
+        <v>3.2</v>
+      </c>
+      <c r="C2" s="26">
+        <f>'Baseline year population inputs'!C52</f>
+        <v>3.2</v>
+      </c>
+      <c r="D2" s="26">
+        <f>'Baseline year population inputs'!C53</f>
+        <v>3.2</v>
+      </c>
+      <c r="E2" s="26">
+        <f>'Baseline year population inputs'!C54</f>
+        <v>3.2</v>
+      </c>
+      <c r="F2" s="26">
+        <f>'Baseline year population inputs'!C55</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="26">
+        <f>frac_mam_1month * 2.6</f>
+        <v>7.7740000000000004E-2</v>
+      </c>
+      <c r="C3" s="26">
+        <f>frac_mam_1_5months * 2.6</f>
+        <v>7.7740000000000004E-2</v>
+      </c>
+      <c r="D3" s="26">
+        <f>frac_mam_6_11months * 2.6</f>
+        <v>7.2279999999999997E-2</v>
+      </c>
+      <c r="E3" s="26">
+        <f>frac_mam_12_23months * 2.6</f>
+        <v>4.5239999999999995E-2</v>
+      </c>
+      <c r="F3" s="26">
+        <f>frac_mam_24_59months * 2.6</f>
+        <v>3.406E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="26">
+        <f>frac_sam_1month * 2.6</f>
+        <v>4.4979999999999999E-2</v>
+      </c>
+      <c r="C4" s="26">
+        <f>frac_sam_1_5months * 2.6</f>
+        <v>4.4979999999999999E-2</v>
+      </c>
+      <c r="D4" s="26">
+        <f>frac_sam_6_11months * 2.6</f>
+        <v>2.8080000000000001E-2</v>
+      </c>
+      <c r="E4" s="26">
+        <f>frac_sam_12_23months * 2.6</f>
+        <v>1.886326E-2</v>
+      </c>
+      <c r="F4" s="26">
+        <f>frac_sam_24_59months * 2.6</f>
+        <v>1.2384060000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -11791,7 +11791,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11906,8 +11906,7 @@
         <v>178</v>
       </c>
       <c r="D5" s="105">
-        <f>5.16</f>
-        <v>5.16</v>
+        <v>2.17</v>
       </c>
       <c r="E5" s="105">
         <v>1</v>
@@ -11928,7 +11927,7 @@
         <v>177</v>
       </c>
       <c r="D6" s="105">
-        <v>5.16</v>
+        <v>2.17</v>
       </c>
       <c r="E6" s="105">
         <v>1</v>
@@ -11975,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="105">
-        <v>5.16</v>
+        <v>2.48</v>
       </c>
       <c r="F8" s="105">
         <v>1</v>
@@ -11996,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="105">
-        <v>5.16</v>
+        <v>2.48</v>
       </c>
       <c r="F9" s="105">
         <v>1</v>
@@ -12401,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="105">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G28" s="105">
         <v>1</v>
@@ -12422,7 +12421,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="105">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G29" s="105">
         <v>1</v>
@@ -12469,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="105">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="H31" s="105">
         <v>1</v>
@@ -12490,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="105">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="H32" s="105">
         <v>1</v>
@@ -12901,6 +12900,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12910,12 +12915,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17290,7 +17289,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17408,10 +17407,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="121">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F7" s="121">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G7" s="121">
         <v>1</v>
@@ -18775,8 +18774,8 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="B10:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18990,13 +18989,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="H9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -19010,10 +19009,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G10" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H10" s="121">
         <v>0</v>
@@ -19033,13 +19032,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="H11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -19053,10 +19052,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G12" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H12" s="121">
         <v>0</v>

--- a/analyses/inputs/Medium 2020 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2020 base/Panama_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B01217-DC1A-4965-BA4E-4F8C12703C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45498DD2-B548-4B47-8720-8555437EE0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6678,8 +6678,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6744,9 +6744,7 @@
       <c r="B6" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="87" t="s">
-        <v>58</v>
-      </c>
+      <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
@@ -12900,12 +12898,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12915,6 +12907,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18774,7 +18772,7 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="B10:F12"/>
     </sheetView>
   </sheetViews>

--- a/analyses/inputs/Medium 2020 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2020 base/Panama_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45498DD2-B548-4B47-8720-8555437EE0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEEFE530-DE1C-426F-8048-93D5B13EC9A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6203,7 +6203,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6304,7 +6304,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="66">
-        <v>0.62962790697674409</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6679,7 +6679,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6747,8 +6747,12 @@
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6858,7 +6862,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8885,7 +8889,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9047,7 +9051,8 @@
         <v>196</v>
       </c>
       <c r="C4" s="93">
-        <v>1</v>
+        <f>frac_children_health_facility</f>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D4" s="93">
         <v>0</v>
@@ -12898,6 +12903,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12907,12 +12918,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18672,7 +18677,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18715,16 +18720,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18773,7 +18778,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="B10:F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18898,13 +18903,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -18918,13 +18926,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="G6" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="H6" s="121">
-        <v>0</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -18941,13 +18952,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -18961,13 +18975,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="G8" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="H8" s="121">
-        <v>0</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -19966,7 +19983,7 @@
         <v>268</v>
       </c>
       <c r="D53" s="121">
-        <v>0.88</v>
+        <v>0.49</v>
       </c>
       <c r="E53" s="121">
         <v>0</v>
@@ -21617,7 +21634,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21791,7 +21808,7 @@
       <c r="D16" s="83"/>
       <c r="E16" s="59" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -21800,10 +21817,12 @@
         <v>1</v>
       </c>
       <c r="C17" s="82"/>
-      <c r="D17" s="81"/>
+      <c r="D17" s="81" t="s">
+        <v>216</v>
+      </c>
       <c r="E17" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -21812,10 +21831,12 @@
         <v>2</v>
       </c>
       <c r="C18" s="82"/>
-      <c r="D18" s="81"/>
+      <c r="D18" s="81" t="s">
+        <v>216</v>
+      </c>
       <c r="E18" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -21829,7 +21850,7 @@
       </c>
       <c r="E19" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -21843,7 +21864,7 @@
       </c>
       <c r="E20" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -21853,9 +21874,7 @@
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="82" t="s">
-        <v>216</v>
-      </c>
+      <c r="E21" s="82"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="vq8GGOaRJ/GOerAtWxGFZETtNZKg0CexetWZmxch7xxZfD8kikbgXpfHcTl9WJ8jnE0H0jIRnikgCGGsTyAIVg==" saltValue="HrYs8mMt6vkZgEdYoitBSg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
@@ -21938,8 +21957,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22015,7 +22034,7 @@
         <v>0.95</v>
       </c>
       <c r="D4" s="86">
-        <v>1520.46</v>
+        <v>83.38</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>201</v>
@@ -22288,7 +22307,7 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="86">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>201</v>
@@ -22319,7 +22338,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="85">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="D22" s="86">
         <v>27.28</v>

--- a/analyses/inputs/Medium 2020 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2020 base/Panama_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEEFE530-DE1C-426F-8048-93D5B13EC9A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA47B55-E56D-48C8-868E-A2546E51476F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22034,7 +22034,7 @@
         <v>0.95</v>
       </c>
       <c r="D4" s="86">
-        <v>83.38</v>
+        <v>48.65</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>201</v>
@@ -22307,7 +22307,7 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>201</v>

--- a/analyses/inputs/Medium 2020 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2020 base/Panama_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA47B55-E56D-48C8-868E-A2546E51476F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99C9BF49-D223-4165-97D0-C9D82802F112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6679,7 +6679,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6747,12 +6747,8 @@
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>58</v>
-      </c>
+      <c r="A7" s="89"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -12903,12 +12899,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12918,6 +12908,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
